--- a/data/trans_bre/P5_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,26</t>
+          <t>-2,63; 2,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,84</t>
+          <t>-2,19; 6,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,45</t>
+          <t>-2,77; 2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,43</t>
+          <t>-2,34; 7,62</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,19</t>
+          <t>-1,95; 2,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,78</t>
+          <t>-2,13; 3,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,3</t>
+          <t>-2,0; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,07</t>
+          <t>-2,21; 4,25</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>-3,99%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,97</t>
+          <t>-7,82; 0,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 3,34</t>
+          <t>-9,73; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 0,98</t>
+          <t>-7,94; 0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 3,62</t>
+          <t>-10,23; 2,03</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,01</t>
+          <t>-2,09; 0,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,49</t>
+          <t>-1,53; 3,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,07</t>
+          <t>-2,17; 0,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,71</t>
+          <t>-1,62; 3,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,24%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2285817810729118</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5320112563115709</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.002421639873949819</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.005773287559139932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 2,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 6,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 2,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 7,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.633921573944917</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.722458572000416</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.02773612231141497</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.02903035199262033</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.083269110703878</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.12370296661696</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.022283265343632</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.05768003545233789</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 2,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 3,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,0; 2,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 4,25</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.01772967663216107</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7427391469588263</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.000182953196788682</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.007828258587608343</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,46%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,99%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.953363352625913</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.931429381660977</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.02003073117756489</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.01957955394216128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 0,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 1,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 0,74</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 2,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.334922351351434</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.872733054338451</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.02435965627531209</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.04147813484999184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.363625250778068</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.871347805177462</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.03456500538611976</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.05173307033834803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 0,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 3,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 0,97</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 3,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.822951207333044</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.45864510145031</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.07937453237321893</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1304259054468213</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.7230501217647255</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.990920162904874</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.007445151846625045</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.02125995858102786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.5444820485796975</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.05596151572239139</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.005685830637296698</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0005986171749694527</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.089600712270061</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.060034756106785</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.02167994917553879</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.02182373362838173</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.9177095633656214</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.424441967413916</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.009681745364014357</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.02633182997144665</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
